--- a/Test data/Multi-x/Maria_Sp_TTPalphaS_inhibitor.xlsx
+++ b/Test data/Multi-x/Maria_Sp_TTPalphaS_inhibitor.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Original (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Blits input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -149,6 +149,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Original!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>706.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Original!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.38279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34439500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.321301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33202100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30757000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28060600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24304799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19640199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13733100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11967999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8683200000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3290900000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Original!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>706.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Original!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.28887099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24746899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.202269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15751000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14322099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5424900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3784600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5763100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1438000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3692199999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Original!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>706.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Original!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.140986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.119542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8434800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.61489E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4593099999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3359499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.93783E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6782099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9183600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2892099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8401399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.61951E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488526624"/>
+        <c:axId val="488528192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488526624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488528192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488528192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488526624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +1681,9 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -450,9 +1691,6 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
       <c r="B3">
         <v>300</v>
       </c>
@@ -909,6 +2147,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -916,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,28 +2174,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
       </c>
       <c r="C2">
         <v>0.38279999999999997</v>
       </c>
       <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
         <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
       </c>
       <c r="F2">
         <v>0.28887099999999999</v>
       </c>
       <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>0</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
       </c>
       <c r="I2">
         <v>0.140986</v>
@@ -964,28 +2203,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
         <v>11.775</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
       </c>
       <c r="C3">
         <v>0.34439500000000001</v>
       </c>
       <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
         <v>11.775</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
       </c>
       <c r="F3">
         <v>0.24746899999999999</v>
       </c>
       <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
         <v>11.775</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
       </c>
       <c r="I3">
         <v>0.119542</v>
@@ -993,28 +2232,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
         <v>23.55</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
       </c>
       <c r="C4">
         <v>0.321301</v>
       </c>
       <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>23.55</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
       </c>
       <c r="F4">
         <v>0.202269</v>
       </c>
       <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
         <v>23.55</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
       </c>
       <c r="I4">
         <v>9.8434800000000003E-2</v>
@@ -1022,28 +2261,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
         <v>47.1</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
       </c>
       <c r="C5">
         <v>0.33202100000000001</v>
       </c>
       <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <v>47.1</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
       </c>
       <c r="F5">
         <v>0.186441</v>
       </c>
       <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
         <v>47.1</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
       </c>
       <c r="I5">
         <v>8.61489E-2</v>
@@ -1051,28 +2290,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
         <v>70.650000000000006</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
       </c>
       <c r="C6">
         <v>0.30757000000000001</v>
       </c>
       <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <v>70.650000000000006</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
       </c>
       <c r="F6">
         <v>0.15751000000000001</v>
       </c>
       <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>70.650000000000006</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
       </c>
       <c r="I6">
         <v>7.4593099999999996E-2</v>
@@ -1080,28 +2319,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
         <v>94.2</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
       </c>
       <c r="C7">
         <v>0.28060600000000002</v>
       </c>
       <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
         <v>94.2</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
       </c>
       <c r="F7">
         <v>0.14322099999999999</v>
       </c>
       <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
         <v>94.2</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
       </c>
       <c r="I7">
         <v>6.3359499999999999E-2</v>
@@ -1109,28 +2348,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
         <v>141.30000000000001</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
       </c>
       <c r="C8">
         <v>0.24304799999999999</v>
       </c>
       <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
         <v>141.30000000000001</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
       </c>
       <c r="F8">
         <v>0.11284</v>
       </c>
       <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
         <v>141.30000000000001</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
       </c>
       <c r="I8">
         <v>4.93783E-2</v>
@@ -1138,28 +2377,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
         <v>235.5</v>
-      </c>
-      <c r="B9">
-        <v>300</v>
       </c>
       <c r="C9">
         <v>0.19640199999999999</v>
       </c>
       <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <v>235.5</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
       </c>
       <c r="F9">
         <v>7.5424900000000003E-2</v>
       </c>
       <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
         <v>235.5</v>
-      </c>
-      <c r="H9">
-        <v>30</v>
       </c>
       <c r="I9">
         <v>3.6782099999999998E-2</v>
@@ -1167,28 +2406,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>300</v>
+      </c>
+      <c r="B10">
         <v>329.7</v>
-      </c>
-      <c r="B10">
-        <v>300</v>
       </c>
       <c r="C10">
         <v>0.13733100000000001</v>
       </c>
       <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
         <v>329.7</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
       </c>
       <c r="F10">
         <v>7.3784600000000006E-2</v>
       </c>
       <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
         <v>329.7</v>
-      </c>
-      <c r="H10">
-        <v>30</v>
       </c>
       <c r="I10">
         <v>2.9183600000000001E-2</v>
@@ -1196,28 +2435,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
         <v>471</v>
-      </c>
-      <c r="B11">
-        <v>300</v>
       </c>
       <c r="C11">
         <v>0.11967999999999999</v>
       </c>
       <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
         <v>471</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
       </c>
       <c r="F11">
         <v>5.5763100000000003E-2</v>
       </c>
       <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>471</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
       </c>
       <c r="I11">
         <v>2.2892099999999999E-2</v>
@@ -1225,28 +2464,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
         <v>706.5</v>
-      </c>
-      <c r="B12">
-        <v>300</v>
       </c>
       <c r="C12">
         <v>8.8683200000000004E-2</v>
       </c>
       <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
         <v>706.5</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
       </c>
       <c r="F12">
         <v>4.1438000000000003E-2</v>
       </c>
       <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
         <v>706.5</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
       </c>
       <c r="I12">
         <v>1.8401399999999998E-2</v>
@@ -1254,28 +2493,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
         <v>942</v>
-      </c>
-      <c r="B13">
-        <v>300</v>
       </c>
       <c r="C13">
         <v>7.3290900000000006E-2</v>
       </c>
       <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
         <v>942</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
       </c>
       <c r="F13">
         <v>3.3692199999999999E-2</v>
       </c>
       <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
         <v>942</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
       </c>
       <c r="I13">
         <v>1.61951E-2</v>
